--- a/docs/PST1/PST1_19.08.2024_output.xlsx
+++ b/docs/PST1/PST1_19.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2705 +505,3207 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731083834.9088643</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731083837.8001566</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083834.9088643.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083837.8001566.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>273.77</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>274.08</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.3100000000000023</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731083839.0239947</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731083839.100709</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083839.0239947.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083839.100709.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>274.05</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>274.04</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731083842.5911603</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731083843.5287094</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083842.5911603.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083843.5287094.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>272.64</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>271.79</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.8499999999999659</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731083847.6989245</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731083849.4836562</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083847.6989245.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083849.4836562.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>271</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>271.35</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731083861.2087913</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731083863.6175442</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083861.2087913.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731083863.6175442.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>269.92</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>270.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.5799999999999841</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731083870.0486887</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731083871.6663585</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083870.0486887.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083871.6663585.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>273.77</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>274.08</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3100000000000023</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731083872.2136762</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731083872.2600667</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083872.2136762.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083872.2600667.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>274.05</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>274.04</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731083874.2699764</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731083874.746038</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083874.2699764.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083874.746038.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>272.64</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>271.79</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.8499999999999659</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731083876.508711</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731083877.385209</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083876.508711.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083877.385209.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>271</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>271.35</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731083882.6204329</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731083883.7795758</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083882.6204329.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083883.7795758.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>269.92</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>270.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.5799999999999841</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731083887.7862017</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731083891.0882514</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083887.7862017.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083891.0882514.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>274.18</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>274.1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731083899.1582172</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731083900.0684423</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083899.1582172.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083900.0684423.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>271.7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>271.01</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.6899999999999977</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731083918.8938043</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731083919.533684</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083918.8938043.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731083919.533684.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>270.79</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>270.63</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731083923.6761165</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731083924.1280112</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083923.6761165.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083924.1280112.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>127.06</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>127.44</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731083925.6597052</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731083930.5412931</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083925.6597052.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083930.5412931.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.11</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>126.76</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.3499999999999943</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731083940.955809</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731083942.0558567</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083940.955809.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083942.0558567.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>126.41</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>125.96</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4500000000000028</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731083942.8900673</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731083943.5210981</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083942.8900673.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731083943.5210981.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>125.89</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>125.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2900000000000063</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731083950.1963286</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731083950.1963286.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+          <t>./test_images/GAZP1731083950.1963286.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>125.7</v>
       </c>
-      <c r="J20" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>126.88</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.179999999999993</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731083959.9441066</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731083962.3724365</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083959.9441066.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083962.3724365.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6260</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6270.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-10.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731083962.388059</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731083964.6599708</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083962.388059.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083964.6599708.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6270.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6264</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-6.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731083967.3790767</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731083974.103441</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083967.3790767.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083974.103441.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6226.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6185.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-41</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731083974.1124566</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731083976.1675968</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083974.1124566.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083976.1675968.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6185.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6200.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-15</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731083979.3381033</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731083982.8622072</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083979.3381033.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083982.8622072.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6193.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6181</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731083988.2920852</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731083991.993176</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083988.2920852.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731083991.993176.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6195</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6192.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731083992.0088</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731083992.0088.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731083992.0088.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6192.5</v>
       </c>
-      <c r="J27" t="n">
-        <v>6192.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>6187.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731083996.7599168</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731084003.0511234</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731083996.7599168.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084003.0511234.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>490.25</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>491.25</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731084003.066747</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731084003.709765</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084003.066747.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084003.709765.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>491.25</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>491.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731084007.0779533</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731084010.0567002</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084007.0779533.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084010.0567002.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>487.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>488.1</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731084010.0774121</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731084011.159375</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084010.0774121.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084011.159375.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>488.1</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>487.9</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731084018.78442</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731084020.940998</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084018.78442.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084020.940998.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>487.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>487.05</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.3499999999999659</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731084026.411495</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731084029.2081013</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084026.411495.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084029.2081013.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>488.9</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>488.15</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731084029.22375</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731084032.5970185</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084029.22375.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084032.5970185.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>488.15</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>487.9</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731084033.395713</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731084041.2380273</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084033.395713.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084041.2380273.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>220.07</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>217.44</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-2.629999999999995</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731084041.2530499</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731084042.245272</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084041.2530499.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084042.245272.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>217.44</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>216.61</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.8299999999999841</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731084046.2456267</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731084047.5970273</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084046.2456267.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084047.5970273.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>214.65</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>215.27</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.6200000000000045</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731084056.6520054</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731084058.1920404</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084056.6520054.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084058.1920404.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>212.83</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>212.9</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731084058.4107597</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731084059.6913502</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084058.4107597.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084059.6913502.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>213.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>213.57</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.3700000000000045</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731084066.3021824</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731084067.5196764</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084066.3021824.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084067.5196764.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>215.1</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>215.39</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.289999999999992</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731084067.5352976</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731084067.5352976.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731084067.5352976.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>215.39</v>
       </c>
-      <c r="J41" t="n">
-        <v>215.39</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
+      <c r="L41" t="n">
+        <v>215.28</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.1099999999999852</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731084071.908074</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731084072.6440687</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084071.908074.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084072.6440687.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1019.8</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1021</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731084073.1267655</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731084074.3698735</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084073.1267655.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084074.3698735.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1018.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1016.4</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731084078.0988643</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731084079.3154283</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084078.0988643.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084079.3154283.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1013.2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1013.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731084082.550859</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731084085.7772057</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084082.550859.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084085.7772057.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1016.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1017.8</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-1.199999999999932</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731084089.1441188</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731084092.2386186</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084089.1441188.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084092.2386186.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1013.4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1015.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731084092.2542424</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731084092.2542424.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+          <t>./test_images/NVTK1731084092.2542424.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1015.8</v>
       </c>
-      <c r="J47" t="n">
-        <v>1015.8</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>1022.8</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731084104.955193</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731084106.6738718</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084104.955193.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084106.6738718.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>12.174</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>12.169</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.004999999999999005</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731084110.5977435</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731084110.6840985</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084110.5977435.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084110.6840985.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>12.167</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>12.164</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.003000000000000114</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731084117.9401774</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731084118.6799097</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084117.9401774.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084118.6799097.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>12.177</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>12.188</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.01100000000000101</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731084122.4890773</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731084123.8315349</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084122.4890773.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084123.8315349.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>12.179</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>12.181</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.001999999999998892</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731084126.8784473</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731084131.3477225</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084126.8784473.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084131.3477225.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>12.165</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>12.155</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.009999999999999787</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731084131.3673348</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731084131.910323</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084131.3673348.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084131.910323.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>12.155</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>12.146</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.008999999999998565</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731084135.2699254</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731084138.1185863</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084135.2699254.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084138.1185863.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>12.145</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>12.154</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.009000000000000341</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731084141.269192</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731084142.1746373</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084141.269192.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084142.1746373.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>126.9</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>127.32</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731084143.8151433</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731084148.9228964</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084143.8151433.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084148.9228964.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>126.68</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>126.12</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.5600000000000023</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731084150.6423948</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731084153.6427498</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084150.6423948.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084153.6427498.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>125.78</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>125.78</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3196,767 +3713,911 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731084153.658357</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731084155.4420872</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084153.658357.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084155.4420872.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>125.78</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>125.8</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731084159.6065485</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731084163.5505762</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084159.6065485.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084163.5505762.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>124.28</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>124.52</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.2399999999999949</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731084165.8882673</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731084169.024887</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084165.8882673.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084169.024887.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>125.02</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>125.26</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731084172.5661356</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731084172.5661356.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+          <t>./test_images/GMKN1731084172.5661356.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>126.02</v>
       </c>
-      <c r="J61" t="n">
-        <v>126.02</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
+      <c r="L61" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731084177.5852187</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731084182.5192556</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084177.5852187.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084182.5192556.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>161.98</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>160.76</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>1.219999999999999</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731084182.5348766</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731084198.7393217</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084182.5348766.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084198.7393217.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>160.76</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>159.4</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-1.359999999999985</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731084198.7549427</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731084199.8986719</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084198.7549427.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084199.8986719.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>159.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>159.02</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731084201.705594</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731084204.7514007</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084201.705594.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084204.7514007.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>159</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>158.86</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731084205.6284084</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731084205.8002703</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084205.6284084.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084205.8002703.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>159.08</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>158.88</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731084206.3330853</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731084206.503875</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084206.3330853.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084206.503875.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>159.1</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>158.74</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731084208.2412887</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731084208.2412887.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+          <t>./test_images/NLMK1731084208.2412887.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>159.06</v>
       </c>
-      <c r="J68" t="n">
-        <v>159.06</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
+      <c r="L68" t="n">
+        <v>158.84</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731084217.3360503</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731084218.658684</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084217.3360503.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084218.658684.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>49.305</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>49.215</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731084219.8306198</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731084220.386878</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084219.8306198.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084220.386878.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>49.125</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>49.095</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731084235.4098835</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731084235.752679</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084235.4098835.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084235.752679.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>48.91</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>48.87</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731084236.832661</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731084237.7844398</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084236.832661.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084237.7844398.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>48.82</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>48.68</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731084240.473022</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731084241.7683432</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084240.473022.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084241.7683432.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1378.8</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1378.8</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3964,2459 +4625,2918 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731084241.783968</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731084258.2686925</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084241.783968.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084258.2686925.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1378.8</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1358</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-20.79999999999995</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731084258.284314</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731084259.018286</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084258.284314.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084259.018286.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>1358</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>1357</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731084263.1760292</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731084263.33457</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084263.1760292.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084263.33457.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>1355.6</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>1352.8</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731084265.7997675</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731084267.7531223</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084265.7997675.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084267.7531223.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>1354.4</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>1350.6</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>3.800000000000182</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731084275.6428614</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731084278.7713282</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084275.6428614.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084278.7713282.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>58.1</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>57.79</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731084278.7869418</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731084281.1584647</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084278.7869418.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084281.1584647.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>57.79</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>57.92</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731084281.1740854</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731084282.7209973</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084281.1740854.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084282.7209973.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>57.92</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>57.75</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731084282.7522397</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731084286.1264472</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084282.7522397.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084286.1264472.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>57.75</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>57.94</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731084286.142096</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731084288.305661</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084286.142096.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084288.305661.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>57.94</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>57.86</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731084290.7990115</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731084293.2422266</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084290.7990115.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084293.2422266.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>57.65</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>57.66</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731084301.3151338</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731084303.602989</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084301.3151338.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084303.602989.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>57.9</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>57.71</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731084303.6189425</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731084303.6189425.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731084303.6189425.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>57.71</v>
       </c>
-      <c r="J85" t="n">
-        <v>57.71</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
+      <c r="L85" t="n">
+        <v>57.64</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731084308.268302</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731084311.2757924</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084308.268302.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084311.2757924.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>98.62</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>98.06</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731084311.2914126</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731084325.0847518</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084311.2914126.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084325.0847518.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>98.06</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731084325.0938225</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731084329.0620844</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084325.0938225.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084329.0620844.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>97.51000000000001</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.3900000000000006</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731084329.080353</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731084330.6752062</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084329.080353.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084330.6752062.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>97.51000000000001</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>98.15000000000001</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.6400000000000006</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731084330.6908545</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731084331.9461184</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084330.6908545.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084331.9461184.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>98.15000000000001</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>98.38</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.2299999999999898</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731084331.9617403</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731084332.615795</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084331.9617403.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084332.615795.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>98.38</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731084333.0105894</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731084333.3575163</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084333.0105894.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084333.3575163.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>98.37</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>98.33</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731084335.2441592</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731084335.658188</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084335.2441592.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731084335.658188.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>98.56</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>98.77</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.2099999999999937</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731084341.0220804</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731084346.2922966</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SELG1731084341.0220804.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SELG1731084346.2922966.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>54.78</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>54.57</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.2100000000000009</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731084346.307918</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731084346.6268072</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SELG1731084346.307918.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SELG1731084346.6268072.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>54.57</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>54.39</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731084348.9887583</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731084350.159058</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731084348.9887583.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731084350.159058.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>54.33</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>54.26</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731084367.304266</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731084368.9970286</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731084367.304266.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731084368.9970286.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>151.8</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>152.06</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731084369.0126233</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731084371.9078872</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731084369.0126233.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731084371.9078872.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>152.06</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>151.14</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.9200000000000159</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731084374.7375288</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731084379.6424131</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731084374.7375288.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731084379.6424131.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>150.98</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>150.72</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731084379.6580348</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731084381.0240662</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731084379.6580348.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731084381.0240662.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>150.72</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>150.22</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731084385.9470084</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731084385.9470084.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+          <t>./test_images/SOFL1731084385.9470084.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>149.2</v>
       </c>
-      <c r="J101" t="n">
-        <v>149.2</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
+      <c r="L101" t="n">
+        <v>150.52</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-1.320000000000022</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.88</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731084400.877347</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731084401.626801</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731084400.877347.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731084401.626801.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>0.3024</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>0.3009</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.001500000000000001</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731084402.2395577</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731084409.1580517</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731084402.2395577.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731084409.1580517.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>0.303</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>0.3022</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.0007999999999999674</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731084411.2238796</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731084411.2238796.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+          <t>./test_images/MRKP1731084411.2238796.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>0.3036</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.3036</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
+      <c r="L104" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.0005999999999999894</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731084417.4735281</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731084419.8800964</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084417.4735281.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084419.8800964.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>19.659</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>19.673</v>
       </c>
-      <c r="K105" t="n">
-        <v>0.0140000000000029</v>
+      <c r="M105" t="n">
+        <v>0.01399999999999935</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731084419.8957083</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731084422.4883354</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084419.8957083.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084422.4883354.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>19.673</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>19.696</v>
       </c>
-      <c r="K106" t="n">
-        <v>-0.02299999999999969</v>
+      <c r="M106" t="n">
+        <v>-0.02300000000000324</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731084431.2692583</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731084431.704842</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084431.2692583.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084431.704842.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>19.408</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>19.374</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.03400000000000247</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731084432.3731787</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731084435.0014699</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084432.3731787.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084435.0014699.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>19.491</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>19.421</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731084439.8883672</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731084441.4749525</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084439.8883672.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084441.4749525.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>19.426</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>19.407</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.01899999999999835</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731084446.3186412</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731084446.9435174</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084446.3186412.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084446.9435174.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>19.286</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>19.243</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.04300000000000281</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731084447.7868505</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731084451.173499</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084447.7868505.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731084451.173499.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>19.293</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>19.272</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.0210000000000008</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731084453.9236512</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731084453.9236512.png</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+          <t>./test_images/AFKS1731084453.9236512.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>19.254</v>
       </c>
-      <c r="J112" t="n">
-        <v>19.254</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
+      <c r="L112" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.04400000000000048</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731084458.7515295</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731084460.1660101</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731084458.7515295.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731084460.1660101.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>669.75</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>669.05</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>-0.7000000000000455</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731084461.2678485</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731084463.5025954</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731084461.2678485.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731084463.5025954.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>667.45</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>667.7</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731084463.518244</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731084464.2786915</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731084463.518244.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731084464.2786915.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>667.7</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>666</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>1.700000000000045</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731084472.6223044</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731084481.28494</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731084472.6223044.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731084481.28494.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>666.9</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>667.8</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731084481.3005614</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731084481.3005614.png</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+          <t>./test_images/SIBN1731084481.3005614.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>667.8</v>
       </c>
-      <c r="J117" t="n">
-        <v>667.8</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
+      <c r="L117" t="n">
+        <v>668.75</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-0.9500000000000455</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731084492.5356698</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731084493.5344872</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084492.5356698.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084493.5344872.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>146.37</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>145.82</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731084495.3295765</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731084498.4247954</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084495.3295765.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084498.4247954.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>145.6</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>146.01</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>-0.4099999999999966</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731084500.0370922</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731084500.9944825</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084500.0370922.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084500.9944825.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>146.29</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>145.94</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.3499999999999943</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731084503.9423063</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731084505.861687</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084503.9423063.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084505.861687.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>145.48</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>145.15</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>0.3299999999999841</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731084506.507989</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731084507.0325325</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084506.507989.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084507.0325325.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>144.83</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>144.07</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>0.7600000000000193</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731084508.176651</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731084509.103196</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084508.176651.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084509.103196.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>144.08</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>144</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731084509.2201726</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731084512.0027552</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084509.2201726.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731084512.0027552.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>144.28</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>144</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
@@ -6430,7 +7550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6454,6 +7574,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6462,11 +7597,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1780000000000079</v>
+        <v>0.2220000000000013</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.02775000000000016</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6480,6 +7624,15 @@
       <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.177500000000002</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6493,6 +7646,15 @@
       <c r="C4" t="n">
         <v>8</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.06874999999999432</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6501,11 +7663,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.060000000000002</v>
+        <v>0.990000000000002</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.1237500000000002</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6514,11 +7685,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.150000000000006</v>
+        <v>-3.259999999999991</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.4657142857142844</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6532,6 +7712,15 @@
       <c r="C7" t="n">
         <v>7</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.142857142857151</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6540,11 +7729,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9399999999999977</v>
+        <v>1.159999999999997</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.1657142857142852</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7299999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6558,6 +7756,15 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.2771428571428609</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6566,11 +7773,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-58</v>
+        <v>-63</v>
       </c>
       <c r="C10" t="n">
         <v>7</v>
       </c>
+      <c r="D10" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6579,11 +7795,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.6400000000000148</v>
+        <v>-1.320000000000022</v>
       </c>
       <c r="C11" t="n">
         <v>7</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.1885714285714317</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6597,6 +7822,15 @@
       <c r="C12" t="n">
         <v>7</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.000714285714285826</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6605,11 +7839,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="C13" t="n">
         <v>6</v>
       </c>
+      <c r="D13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6618,11 +7861,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7700000000000102</v>
+        <v>-0.4099999999999824</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.08199999999999648</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6636,6 +7888,15 @@
       <c r="C15" t="n">
         <v>5</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.07600000000001046</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6644,11 +7905,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.149999999999977</v>
+        <v>1.199999999999932</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.2399999999999864</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6657,11 +7927,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.9399999999999977</v>
+        <v>-2.260000000000019</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.4520000000000038</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6675,6 +7954,15 @@
       <c r="C18" t="n">
         <v>5</v>
       </c>
+      <c r="D18" t="n">
+        <v>-2.639999999999964</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.9500000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6688,6 +7976,15 @@
       <c r="C19" t="n">
         <v>4</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.07499999999999929</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6696,11 +7993,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002299999999999969</v>
+        <v>0.002899999999999958</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.0009666666666666527</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6714,6 +8020,15 @@
       <c r="C21" t="n">
         <v>3</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.01333333333333305</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6727,6 +8042,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
